--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_100ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2977,28 +2977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2630.928228650999</v>
+        <v>2760.428745583251</v>
       </c>
       <c r="AB2" t="n">
-        <v>3599.752070802257</v>
+        <v>3776.940391228567</v>
       </c>
       <c r="AC2" t="n">
-        <v>3256.196785448516</v>
+        <v>3416.474501258702</v>
       </c>
       <c r="AD2" t="n">
-        <v>2630928.228650999</v>
+        <v>2760428.745583252</v>
       </c>
       <c r="AE2" t="n">
-        <v>3599752.070802256</v>
+        <v>3776940.391228567</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.02833932948552e-06</v>
+        <v>1.482520217060804e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.55625</v>
       </c>
       <c r="AH2" t="n">
-        <v>3256196.785448516</v>
+        <v>3416474.501258702</v>
       </c>
     </row>
     <row r="3">
@@ -3083,28 +3083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>883.0684318887918</v>
+        <v>952.13537425266</v>
       </c>
       <c r="AB3" t="n">
-        <v>1208.253186739927</v>
+        <v>1302.75362430062</v>
       </c>
       <c r="AC3" t="n">
-        <v>1092.939198391465</v>
+        <v>1178.420646823564</v>
       </c>
       <c r="AD3" t="n">
-        <v>883068.4318887918</v>
+        <v>952135.37425266</v>
       </c>
       <c r="AE3" t="n">
-        <v>1208253.186739927</v>
+        <v>1302753.62430062</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.938074619409156e-06</v>
+        <v>2.794053210902651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.68125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1092939.198391465</v>
+        <v>1178420.646823564</v>
       </c>
     </row>
     <row r="4">
@@ -3189,28 +3189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>667.3813418859164</v>
+        <v>727.6443242537089</v>
       </c>
       <c r="AB4" t="n">
-        <v>913.1405947551481</v>
+        <v>995.5950658459079</v>
       </c>
       <c r="AC4" t="n">
-        <v>825.9917379925899</v>
+        <v>900.5768700880245</v>
       </c>
       <c r="AD4" t="n">
-        <v>667381.3418859164</v>
+        <v>727644.3242537088</v>
       </c>
       <c r="AE4" t="n">
-        <v>913140.594755148</v>
+        <v>995595.0658459079</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.273900571526572e-06</v>
+        <v>3.278201535441447e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.36666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>825991.7379925899</v>
+        <v>900576.8700880245</v>
       </c>
     </row>
     <row r="5">
@@ -3295,28 +3295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>569.2436173748825</v>
+        <v>620.958572801763</v>
       </c>
       <c r="AB5" t="n">
-        <v>778.8642305483089</v>
+        <v>849.62291406618</v>
       </c>
       <c r="AC5" t="n">
-        <v>704.530521527591</v>
+        <v>768.5360956009521</v>
       </c>
       <c r="AD5" t="n">
-        <v>569243.6173748826</v>
+        <v>620958.572801763</v>
       </c>
       <c r="AE5" t="n">
-        <v>778864.2305483089</v>
+        <v>849622.91406618</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.454651377205755e-06</v>
+        <v>3.538783539830486e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.38125</v>
       </c>
       <c r="AH5" t="n">
-        <v>704530.5215275909</v>
+        <v>768536.095600952</v>
       </c>
     </row>
     <row r="6">
@@ -3401,28 +3401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>514.8000989432268</v>
+        <v>575.062991802468</v>
       </c>
       <c r="AB6" t="n">
-        <v>704.3722067516005</v>
+        <v>786.8265553728119</v>
       </c>
       <c r="AC6" t="n">
-        <v>637.1479119318282</v>
+        <v>711.7329332460363</v>
       </c>
       <c r="AD6" t="n">
-        <v>514800.0989432267</v>
+        <v>575062.991802468</v>
       </c>
       <c r="AE6" t="n">
-        <v>704372.2067516005</v>
+        <v>786826.5553728119</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.543786762411551e-06</v>
+        <v>3.667286852729358e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.94791666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>637147.9119318281</v>
+        <v>711732.9332460363</v>
       </c>
     </row>
     <row r="7">
@@ -3507,28 +3507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>515.5191468308475</v>
+        <v>575.7820396900887</v>
       </c>
       <c r="AB7" t="n">
-        <v>705.3560397935973</v>
+        <v>787.8103884148087</v>
       </c>
       <c r="AC7" t="n">
-        <v>638.0378493291151</v>
+        <v>712.6228706433233</v>
       </c>
       <c r="AD7" t="n">
-        <v>515519.1468308475</v>
+        <v>575782.0396900887</v>
       </c>
       <c r="AE7" t="n">
-        <v>705356.0397935973</v>
+        <v>787810.3884148087</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.544516184549077e-06</v>
+        <v>3.668338434667974e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.94375</v>
       </c>
       <c r="AH7" t="n">
-        <v>638037.8493291151</v>
+        <v>712622.8706433233</v>
       </c>
     </row>
     <row r="8">
@@ -3613,28 +3613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>516.057281976952</v>
+        <v>576.3201748361934</v>
       </c>
       <c r="AB8" t="n">
-        <v>706.0923400413445</v>
+        <v>788.546688662556</v>
       </c>
       <c r="AC8" t="n">
-        <v>638.7038781146214</v>
+        <v>713.2888994288293</v>
       </c>
       <c r="AD8" t="n">
-        <v>516057.281976952</v>
+        <v>576320.1748361933</v>
       </c>
       <c r="AE8" t="n">
-        <v>706092.3400413445</v>
+        <v>788546.688662556</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.548892717374239e-06</v>
+        <v>3.67464792629967e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.925</v>
       </c>
       <c r="AH8" t="n">
-        <v>638703.8781146214</v>
+        <v>713288.8994288293</v>
       </c>
     </row>
   </sheetData>
@@ -3910,28 +3910,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1583.115936177271</v>
+        <v>1675.707684790856</v>
       </c>
       <c r="AB2" t="n">
-        <v>2166.089066023635</v>
+        <v>2292.777181336396</v>
       </c>
       <c r="AC2" t="n">
-        <v>1959.360565687437</v>
+        <v>2073.957745082634</v>
       </c>
       <c r="AD2" t="n">
-        <v>1583115.936177271</v>
+        <v>1675707.684790856</v>
       </c>
       <c r="AE2" t="n">
-        <v>2166089.066023636</v>
+        <v>2292777.181336395</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.361860562478142e-06</v>
+        <v>1.993712631699693e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.0875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1959360.565687437</v>
+        <v>2073957.745082634</v>
       </c>
     </row>
     <row r="3">
@@ -4016,28 +4016,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>683.9989608302163</v>
+        <v>742.8356743692169</v>
       </c>
       <c r="AB3" t="n">
-        <v>935.8775541123462</v>
+        <v>1016.380541269013</v>
       </c>
       <c r="AC3" t="n">
-        <v>846.5587138602599</v>
+        <v>919.3786089093469</v>
       </c>
       <c r="AD3" t="n">
-        <v>683998.9608302163</v>
+        <v>742835.6743692169</v>
       </c>
       <c r="AE3" t="n">
-        <v>935877.5541123461</v>
+        <v>1016380.541269013</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.204873982469599e-06</v>
+        <v>3.227852565285075e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.26041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>846558.7138602599</v>
+        <v>919378.6089093469</v>
       </c>
     </row>
     <row r="4">
@@ -4122,28 +4122,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>524.891582939868</v>
+        <v>575.4814651244578</v>
       </c>
       <c r="AB4" t="n">
-        <v>718.1798203606581</v>
+        <v>787.3991290336985</v>
       </c>
       <c r="AC4" t="n">
-        <v>649.6377462771446</v>
+        <v>712.2508612803399</v>
       </c>
       <c r="AD4" t="n">
-        <v>524891.5829398681</v>
+        <v>575481.4651244578</v>
       </c>
       <c r="AE4" t="n">
-        <v>718179.8203606581</v>
+        <v>787399.1290336985</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.511684989065128e-06</v>
+        <v>3.677012337032135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.51666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>649637.7462771446</v>
+        <v>712250.8612803399</v>
       </c>
     </row>
     <row r="5">
@@ -4228,28 +4228,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>489.2627580897589</v>
+        <v>539.6820480737565</v>
       </c>
       <c r="AB5" t="n">
-        <v>669.4308903679208</v>
+        <v>738.4167872661143</v>
       </c>
       <c r="AC5" t="n">
-        <v>605.5413457433614</v>
+        <v>667.9433254639055</v>
       </c>
       <c r="AD5" t="n">
-        <v>489262.7580897589</v>
+        <v>539682.0480737565</v>
       </c>
       <c r="AE5" t="n">
-        <v>669430.8903679209</v>
+        <v>738416.7872661143</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.593782966235796e-06</v>
+        <v>3.79720068717006e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.12083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>605541.3457433614</v>
+        <v>667943.3254639055</v>
       </c>
     </row>
     <row r="6">
@@ -4334,28 +4334,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>491.1100967242828</v>
+        <v>541.5293867082805</v>
       </c>
       <c r="AB6" t="n">
-        <v>671.958500586505</v>
+        <v>740.9443974846984</v>
       </c>
       <c r="AC6" t="n">
-        <v>607.8277243902071</v>
+        <v>670.2297041107513</v>
       </c>
       <c r="AD6" t="n">
-        <v>491110.0967242828</v>
+        <v>541529.3867082805</v>
       </c>
       <c r="AE6" t="n">
-        <v>671958.500586505</v>
+        <v>740944.3974846983</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.593933881635008e-06</v>
+        <v>3.797421621637226e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.12083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>607827.7243902071</v>
+        <v>670229.7041107513</v>
       </c>
     </row>
     <row r="7">
@@ -4440,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>491.9614827778873</v>
+        <v>542.3807727618848</v>
       </c>
       <c r="AB7" t="n">
-        <v>673.1234045455484</v>
+        <v>742.1093014437416</v>
       </c>
       <c r="AC7" t="n">
-        <v>608.8814515503523</v>
+        <v>671.2834312708965</v>
       </c>
       <c r="AD7" t="n">
-        <v>491961.4827778873</v>
+        <v>542380.7727618848</v>
       </c>
       <c r="AE7" t="n">
-        <v>673123.4045455484</v>
+        <v>742109.3014437417</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.598008597413699e-06</v>
+        <v>3.803386852250689e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.10208333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>608881.4515503523</v>
+        <v>671283.4312708965</v>
       </c>
     </row>
   </sheetData>
@@ -4737,28 +4737,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.0776989421774</v>
+        <v>542.3634687358358</v>
       </c>
       <c r="AB2" t="n">
-        <v>667.80944016108</v>
+        <v>742.0856253119017</v>
       </c>
       <c r="AC2" t="n">
-        <v>604.0746444685417</v>
+        <v>671.2620147558497</v>
       </c>
       <c r="AD2" t="n">
-        <v>488077.6989421775</v>
+        <v>542363.4687358357</v>
       </c>
       <c r="AE2" t="n">
-        <v>667809.44016108</v>
+        <v>742085.6253119017</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.457455370357877e-06</v>
+        <v>3.801986788823668e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.27708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>604074.6444685417</v>
+        <v>671262.0147558497</v>
       </c>
     </row>
     <row r="3">
@@ -4843,28 +4843,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.9343013915432</v>
+        <v>485.13473033063</v>
       </c>
       <c r="AB3" t="n">
-        <v>589.6233226435248</v>
+        <v>663.7827406721489</v>
       </c>
       <c r="AC3" t="n">
-        <v>533.3505002719569</v>
+        <v>600.4322475273259</v>
       </c>
       <c r="AD3" t="n">
-        <v>430934.3013915432</v>
+        <v>485134.73033063</v>
       </c>
       <c r="AE3" t="n">
-        <v>589623.3226435249</v>
+        <v>663782.7406721489</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.618276988852482e-06</v>
+        <v>4.050797683316e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="AH3" t="n">
-        <v>533350.5002719569</v>
+        <v>600432.2475273259</v>
       </c>
     </row>
     <row r="4">
@@ -4949,28 +4949,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>433.7119823271865</v>
+        <v>487.9124112662733</v>
       </c>
       <c r="AB4" t="n">
-        <v>593.4238682423063</v>
+        <v>667.5832862709303</v>
       </c>
       <c r="AC4" t="n">
-        <v>536.7883271328899</v>
+        <v>603.870074388259</v>
       </c>
       <c r="AD4" t="n">
-        <v>433711.9823271865</v>
+        <v>487912.4112662733</v>
       </c>
       <c r="AE4" t="n">
-        <v>593423.8682423063</v>
+        <v>667583.2862709303</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.618276988852482e-06</v>
+        <v>4.050797683316e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.4</v>
       </c>
       <c r="AH4" t="n">
-        <v>536788.3271328899</v>
+        <v>603870.074388259</v>
       </c>
     </row>
   </sheetData>
@@ -5246,28 +5246,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>755.6081581733574</v>
+        <v>827.7160069244869</v>
       </c>
       <c r="AB2" t="n">
-        <v>1033.856417092055</v>
+        <v>1132.517556927121</v>
       </c>
       <c r="AC2" t="n">
-        <v>935.1866116713832</v>
+        <v>1024.43167079237</v>
       </c>
       <c r="AD2" t="n">
-        <v>755608.1581733574</v>
+        <v>827716.006924487</v>
       </c>
       <c r="AE2" t="n">
-        <v>1033856.417092055</v>
+        <v>1132517.556927121</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.001860337188826e-06</v>
+        <v>3.025399453251594e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.76666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>935186.6116713831</v>
+        <v>1024431.67079237</v>
       </c>
     </row>
     <row r="3">
@@ -5352,28 +5352,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.9080359342483</v>
+        <v>498.9729536618888</v>
       </c>
       <c r="AB3" t="n">
-        <v>606.0063144887404</v>
+        <v>682.7168083333038</v>
       </c>
       <c r="AC3" t="n">
-        <v>548.1699223691386</v>
+        <v>617.559274345031</v>
       </c>
       <c r="AD3" t="n">
-        <v>442908.0359342484</v>
+        <v>498972.9536618888</v>
       </c>
       <c r="AE3" t="n">
-        <v>606006.3144887404</v>
+        <v>682716.8083333038</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.636604400324507e-06</v>
+        <v>3.984684327371285e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>548169.9223691386</v>
+        <v>617559.274345031</v>
       </c>
     </row>
     <row r="4">
@@ -5458,28 +5458,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>442.5945769273707</v>
+        <v>498.6594946550112</v>
       </c>
       <c r="AB4" t="n">
-        <v>605.5774260466951</v>
+        <v>682.2879198912583</v>
       </c>
       <c r="AC4" t="n">
-        <v>547.7819664380531</v>
+        <v>617.1713184139458</v>
       </c>
       <c r="AD4" t="n">
-        <v>442594.5769273707</v>
+        <v>498659.4946550112</v>
       </c>
       <c r="AE4" t="n">
-        <v>605577.4260466951</v>
+        <v>682287.9198912584</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.644498425475179e-06</v>
+        <v>3.996614519968205e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.69166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>547781.9664380532</v>
+        <v>617171.3184139457</v>
       </c>
     </row>
   </sheetData>
@@ -5755,28 +5755,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.762552959945</v>
+        <v>484.5889830739126</v>
       </c>
       <c r="AB2" t="n">
-        <v>590.7565729792926</v>
+        <v>663.0360251988384</v>
       </c>
       <c r="AC2" t="n">
-        <v>534.3755947862057</v>
+        <v>599.7567975307666</v>
       </c>
       <c r="AD2" t="n">
-        <v>431762.5529599451</v>
+        <v>484588.9830739126</v>
       </c>
       <c r="AE2" t="n">
-        <v>590756.5729792926</v>
+        <v>663036.0251988384</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.529187754076742e-06</v>
+        <v>3.997350870639691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>534375.5947862058</v>
+        <v>599756.7975307666</v>
       </c>
     </row>
     <row r="3">
@@ -5861,28 +5861,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>433.2553738535168</v>
+        <v>486.0818039674843</v>
       </c>
       <c r="AB3" t="n">
-        <v>592.7991163844872</v>
+        <v>665.078568604033</v>
       </c>
       <c r="AC3" t="n">
-        <v>536.2232007155362</v>
+        <v>601.604403460097</v>
       </c>
       <c r="AD3" t="n">
-        <v>433255.3738535168</v>
+        <v>486081.8039674843</v>
       </c>
       <c r="AE3" t="n">
-        <v>592799.1163844872</v>
+        <v>665078.568604033</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.535484051645843e-06</v>
+        <v>4.007302093331278e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.37083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>536223.2007155363</v>
+        <v>601604.403460097</v>
       </c>
     </row>
     <row r="4">
@@ -5967,28 +5967,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>436.6529473211605</v>
+        <v>489.479377435128</v>
       </c>
       <c r="AB4" t="n">
-        <v>597.4478262932801</v>
+        <v>669.7272785128258</v>
       </c>
       <c r="AC4" t="n">
-        <v>540.4282442751393</v>
+        <v>605.8094470197001</v>
       </c>
       <c r="AD4" t="n">
-        <v>436652.9473211605</v>
+        <v>489479.377435128</v>
       </c>
       <c r="AE4" t="n">
-        <v>597447.8262932801</v>
+        <v>669727.2785128258</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.535309154491145e-06</v>
+        <v>4.007025670478733e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.37083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>540428.2442751393</v>
+        <v>605809.4470197001</v>
       </c>
     </row>
   </sheetData>
@@ -6264,28 +6264,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1784.877250418765</v>
+        <v>1894.785691845325</v>
       </c>
       <c r="AB2" t="n">
-        <v>2442.147797249824</v>
+        <v>2592.529375627868</v>
       </c>
       <c r="AC2" t="n">
-        <v>2209.072639056261</v>
+        <v>2345.102010655775</v>
       </c>
       <c r="AD2" t="n">
-        <v>1784877.250418765</v>
+        <v>1894785.691845325</v>
       </c>
       <c r="AE2" t="n">
-        <v>2442147.797249824</v>
+        <v>2592529.375627868</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.273949839832381e-06</v>
+        <v>1.857274004248784e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2209072.639056261</v>
+        <v>2345102.010655775</v>
       </c>
     </row>
     <row r="3">
@@ -6370,28 +6370,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>729.8539269176265</v>
+        <v>797.5620472825775</v>
       </c>
       <c r="AB3" t="n">
-        <v>998.6183416914697</v>
+        <v>1091.259579046249</v>
       </c>
       <c r="AC3" t="n">
-        <v>903.3116087300806</v>
+        <v>987.1112964145129</v>
       </c>
       <c r="AD3" t="n">
-        <v>729853.9269176265</v>
+        <v>797562.0472825775</v>
       </c>
       <c r="AE3" t="n">
-        <v>998618.3416914697</v>
+        <v>1091259.579046249</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.132572289994121e-06</v>
+        <v>3.109047901688591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.61041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>903311.6087300805</v>
+        <v>987111.2964145129</v>
       </c>
     </row>
     <row r="4">
@@ -6476,28 +6476,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>556.7855035563118</v>
+        <v>616.0194412688227</v>
       </c>
       <c r="AB4" t="n">
-        <v>761.8184896085487</v>
+        <v>842.8649764037062</v>
       </c>
       <c r="AC4" t="n">
-        <v>689.1116021792737</v>
+        <v>762.4231260241598</v>
       </c>
       <c r="AD4" t="n">
-        <v>556785.5035563118</v>
+        <v>616019.4412688226</v>
       </c>
       <c r="AE4" t="n">
-        <v>761818.4896085487</v>
+        <v>842864.9764037062</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.452630127190797e-06</v>
+        <v>3.575655834195329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.70416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>689111.6021792737</v>
+        <v>762423.1260241598</v>
       </c>
     </row>
     <row r="5">
@@ -6582,28 +6582,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>496.958980217031</v>
+        <v>547.7188247856524</v>
       </c>
       <c r="AB5" t="n">
-        <v>679.9612010158115</v>
+        <v>749.4130597208951</v>
       </c>
       <c r="AC5" t="n">
-        <v>615.0666583224013</v>
+        <v>677.8901291089675</v>
       </c>
       <c r="AD5" t="n">
-        <v>496958.980217031</v>
+        <v>547718.8247856523</v>
       </c>
       <c r="AE5" t="n">
-        <v>679961.2010158115</v>
+        <v>749413.0597208951</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.582298419176554e-06</v>
+        <v>3.764697459187545e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.06666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>615066.6583224012</v>
+        <v>677890.1291089675</v>
       </c>
     </row>
     <row r="6">
@@ -6688,28 +6688,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>498.8595680031356</v>
+        <v>549.619412571757</v>
       </c>
       <c r="AB6" t="n">
-        <v>682.5616690727754</v>
+        <v>752.0135277778591</v>
       </c>
       <c r="AC6" t="n">
-        <v>617.4189413577882</v>
+        <v>680.2424121443545</v>
       </c>
       <c r="AD6" t="n">
-        <v>498859.5680031356</v>
+        <v>549619.412571757</v>
       </c>
       <c r="AE6" t="n">
-        <v>682561.6690727754</v>
+        <v>752013.527777859</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.581700180228523e-06</v>
+        <v>3.763825294827719e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.06875</v>
       </c>
       <c r="AH6" t="n">
-        <v>617418.9413577882</v>
+        <v>680242.4121443545</v>
       </c>
     </row>
     <row r="7">
@@ -6794,28 +6794,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>499.4766355729977</v>
+        <v>550.236480141619</v>
       </c>
       <c r="AB7" t="n">
-        <v>683.4059681449605</v>
+        <v>752.857826850044</v>
       </c>
       <c r="AC7" t="n">
-        <v>618.1826617115051</v>
+        <v>681.0061324980715</v>
       </c>
       <c r="AD7" t="n">
-        <v>499476.6355729977</v>
+        <v>550236.480141619</v>
       </c>
       <c r="AE7" t="n">
-        <v>683405.9681449605</v>
+        <v>752857.8268500441</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.586037412601749e-06</v>
+        <v>3.770148486436456e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.05</v>
       </c>
       <c r="AH7" t="n">
-        <v>618182.6617115051</v>
+        <v>681006.1324980714</v>
       </c>
     </row>
   </sheetData>
@@ -7091,28 +7091,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>439.320657634198</v>
+        <v>498.6329612819561</v>
       </c>
       <c r="AB2" t="n">
-        <v>601.0979052346506</v>
+        <v>682.2516157596747</v>
       </c>
       <c r="AC2" t="n">
-        <v>543.7299648052634</v>
+        <v>617.1384790977272</v>
       </c>
       <c r="AD2" t="n">
-        <v>439320.657634198</v>
+        <v>498632.9612819561</v>
       </c>
       <c r="AE2" t="n">
-        <v>601097.9052346506</v>
+        <v>682251.6157596747</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.44710433413262e-06</v>
+        <v>3.9208359624063e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.2375</v>
       </c>
       <c r="AH2" t="n">
-        <v>543729.9648052634</v>
+        <v>617138.4790977272</v>
       </c>
     </row>
     <row r="3">
@@ -7197,28 +7197,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.4447440760732</v>
+        <v>501.7570477238315</v>
       </c>
       <c r="AB3" t="n">
-        <v>605.372418129391</v>
+        <v>686.5261286544151</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.5965241886463</v>
+        <v>621.0050384811102</v>
       </c>
       <c r="AD3" t="n">
-        <v>442444.7440760732</v>
+        <v>501757.0477238315</v>
       </c>
       <c r="AE3" t="n">
-        <v>605372.418129391</v>
+        <v>686526.128654415</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449789132626768e-06</v>
+        <v>3.925137640246858e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.22083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>547596.5241886463</v>
+        <v>621005.0384811102</v>
       </c>
     </row>
   </sheetData>
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1101.873867136467</v>
+        <v>1184.205995356197</v>
       </c>
       <c r="AB2" t="n">
-        <v>1507.632436260324</v>
+        <v>1620.282886327704</v>
       </c>
       <c r="AC2" t="n">
-        <v>1363.746112519052</v>
+        <v>1465.645361737901</v>
       </c>
       <c r="AD2" t="n">
-        <v>1101873.867136467</v>
+        <v>1184205.995356197</v>
       </c>
       <c r="AE2" t="n">
-        <v>1507632.436260324</v>
+        <v>1620282.886327704</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.651766293624683e-06</v>
+        <v>2.452613944336373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.61041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1363746.112519052</v>
+        <v>1465645.361737901</v>
       </c>
     </row>
     <row r="3">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>547.3378151111624</v>
+        <v>604.7997126643804</v>
       </c>
       <c r="AB3" t="n">
-        <v>748.8917454752975</v>
+        <v>827.5136487476163</v>
       </c>
       <c r="AC3" t="n">
-        <v>677.4185683633006</v>
+        <v>748.5369075338435</v>
       </c>
       <c r="AD3" t="n">
-        <v>547337.8151111624</v>
+        <v>604799.7126643804</v>
       </c>
       <c r="AE3" t="n">
-        <v>748891.7454752976</v>
+        <v>827513.6487476163</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.437921841075158e-06</v>
+        <v>3.619931660853807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.2875</v>
       </c>
       <c r="AH3" t="n">
-        <v>677418.5683633005</v>
+        <v>748536.9075338435</v>
       </c>
     </row>
     <row r="4">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>464.6230473457986</v>
+        <v>513.9370729316154</v>
       </c>
       <c r="AB4" t="n">
-        <v>635.7177511007147</v>
+        <v>703.1913764884932</v>
       </c>
       <c r="AC4" t="n">
-        <v>575.0457411711293</v>
+        <v>636.0797784517263</v>
       </c>
       <c r="AD4" t="n">
-        <v>464623.0473457986</v>
+        <v>513937.0729316154</v>
       </c>
       <c r="AE4" t="n">
-        <v>635717.7511007148</v>
+        <v>703191.3764884933</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.626686246653654e-06</v>
+        <v>3.900217204337226e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.33125</v>
       </c>
       <c r="AH4" t="n">
-        <v>575045.7411711293</v>
+        <v>636079.7784517263</v>
       </c>
     </row>
     <row r="5">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>466.6321830805467</v>
+        <v>515.9462086663635</v>
       </c>
       <c r="AB5" t="n">
-        <v>638.46673924981</v>
+        <v>705.9403646375886</v>
       </c>
       <c r="AC5" t="n">
-        <v>577.532369749504</v>
+        <v>638.5664070301009</v>
       </c>
       <c r="AD5" t="n">
-        <v>466632.1830805467</v>
+        <v>515946.2086663635</v>
       </c>
       <c r="AE5" t="n">
-        <v>638466.73924981</v>
+        <v>705940.3646375886</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.626997225905019e-06</v>
+        <v>3.900678959763063e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.33125</v>
       </c>
       <c r="AH5" t="n">
-        <v>577532.369749504</v>
+        <v>638566.4070301009</v>
       </c>
     </row>
     <row r="6">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>467.6500567939369</v>
+        <v>516.9640823797538</v>
       </c>
       <c r="AB6" t="n">
-        <v>639.8594389698895</v>
+        <v>707.3330643576681</v>
       </c>
       <c r="AC6" t="n">
-        <v>578.7921521629655</v>
+        <v>639.8261894435624</v>
       </c>
       <c r="AD6" t="n">
-        <v>467650.0567939369</v>
+        <v>516964.0823797538</v>
       </c>
       <c r="AE6" t="n">
-        <v>639859.4389698895</v>
+        <v>707333.0643576682</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.63088446654708e-06</v>
+        <v>3.906450902586033e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.3125</v>
       </c>
       <c r="AH6" t="n">
-        <v>578792.1521629655</v>
+        <v>639826.1894435624</v>
       </c>
     </row>
   </sheetData>
@@ -8215,28 +8215,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1398.370001329666</v>
+        <v>1498.501393080283</v>
       </c>
       <c r="AB2" t="n">
-        <v>1913.311527549724</v>
+        <v>2050.315715228151</v>
       </c>
       <c r="AC2" t="n">
-        <v>1730.707760709972</v>
+        <v>1854.636461002956</v>
       </c>
       <c r="AD2" t="n">
-        <v>1398370.001329666</v>
+        <v>1498501.393080283</v>
       </c>
       <c r="AE2" t="n">
-        <v>1913311.527549724</v>
+        <v>2050315.715228152</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.453408077493005e-06</v>
+        <v>2.1371529766739e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.8375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1730707.760709972</v>
+        <v>1854636.461002956</v>
       </c>
     </row>
     <row r="3">
@@ -8321,28 +8321,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>633.2682746322217</v>
+        <v>699.9656418962522</v>
       </c>
       <c r="AB3" t="n">
-        <v>866.4655911763309</v>
+        <v>957.723871547151</v>
       </c>
       <c r="AC3" t="n">
-        <v>783.7713312465561</v>
+        <v>866.3200494205861</v>
       </c>
       <c r="AD3" t="n">
-        <v>633268.2746322218</v>
+        <v>699965.6418962523</v>
       </c>
       <c r="AE3" t="n">
-        <v>866465.5911763309</v>
+        <v>957723.871547151</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.275939546086793e-06</v>
+        <v>3.346638188525303e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.94583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>783771.3312465561</v>
+        <v>866320.0494205861</v>
       </c>
     </row>
     <row r="4">
@@ -8427,28 +8427,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>491.8986174401908</v>
+        <v>541.9644028240504</v>
       </c>
       <c r="AB4" t="n">
-        <v>673.0373894170891</v>
+        <v>741.5396057258515</v>
       </c>
       <c r="AC4" t="n">
-        <v>608.8036455850303</v>
+        <v>670.7681065127487</v>
       </c>
       <c r="AD4" t="n">
-        <v>491898.6174401908</v>
+        <v>541964.4028240504</v>
       </c>
       <c r="AE4" t="n">
-        <v>673037.3894170892</v>
+        <v>741539.6057258515</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.577437930296295e-06</v>
+        <v>3.789974220059648e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.31458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>608803.6455850303</v>
+        <v>670768.1065127486</v>
       </c>
     </row>
     <row r="5">
@@ -8533,28 +8533,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>480.5689963387857</v>
+        <v>530.6347817226454</v>
       </c>
       <c r="AB5" t="n">
-        <v>657.5357019985398</v>
+        <v>726.0379183073021</v>
       </c>
       <c r="AC5" t="n">
-        <v>594.7814174569523</v>
+        <v>656.7458783846707</v>
       </c>
       <c r="AD5" t="n">
-        <v>480568.9963387857</v>
+        <v>530634.7817226454</v>
       </c>
       <c r="AE5" t="n">
-        <v>657535.7019985399</v>
+        <v>726037.9183073021</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.607603003602754e-06</v>
+        <v>3.834330225235898e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.17083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>594781.4174569524</v>
+        <v>656745.8783846707</v>
       </c>
     </row>
     <row r="6">
@@ -8639,28 +8639,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>482.5122804449584</v>
+        <v>532.578065828818</v>
       </c>
       <c r="AB6" t="n">
-        <v>660.1945890442494</v>
+        <v>728.6968053530115</v>
       </c>
       <c r="AC6" t="n">
-        <v>597.1865440547907</v>
+        <v>659.1510049825092</v>
       </c>
       <c r="AD6" t="n">
-        <v>482512.2804449584</v>
+        <v>532578.065828818</v>
       </c>
       <c r="AE6" t="n">
-        <v>660194.5890442494</v>
+        <v>728696.8053530116</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.607603003602754e-06</v>
+        <v>3.834330225235898e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.17083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>597186.5440547907</v>
+        <v>659151.0049825092</v>
       </c>
     </row>
   </sheetData>
@@ -8936,28 +8936,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2300.302188493612</v>
+        <v>2420.450121410221</v>
       </c>
       <c r="AB2" t="n">
-        <v>3147.374936467444</v>
+        <v>3311.766638836664</v>
       </c>
       <c r="AC2" t="n">
-        <v>2846.99388989934</v>
+        <v>2995.696278919638</v>
       </c>
       <c r="AD2" t="n">
-        <v>2300302.188493612</v>
+        <v>2420450.121410221</v>
       </c>
       <c r="AE2" t="n">
-        <v>3147374.936467444</v>
+        <v>3311766.638836664</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.10729126537453e-06</v>
+        <v>1.601998559614659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.66666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2846993.88989934</v>
+        <v>2995696.278919638</v>
       </c>
     </row>
     <row r="3">
@@ -9042,28 +9042,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>833.7295619064133</v>
+        <v>902.2149313724545</v>
       </c>
       <c r="AB3" t="n">
-        <v>1140.745568152715</v>
+        <v>1234.450272017416</v>
       </c>
       <c r="AC3" t="n">
-        <v>1031.874412174679</v>
+        <v>1116.636070617912</v>
       </c>
       <c r="AD3" t="n">
-        <v>833729.5619064133</v>
+        <v>902214.9313724545</v>
       </c>
       <c r="AE3" t="n">
-        <v>1140745.568152715</v>
+        <v>1234450.272017416</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.999300404253933e-06</v>
+        <v>2.892532857439696e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.32291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1031874.412174679</v>
+        <v>1116636.070617912</v>
       </c>
     </row>
     <row r="4">
@@ -9148,28 +9148,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>632.9122671055153</v>
+        <v>684.4043278640414</v>
       </c>
       <c r="AB4" t="n">
-        <v>865.9784859723472</v>
+        <v>936.4321951715569</v>
       </c>
       <c r="AC4" t="n">
-        <v>783.3307146795844</v>
+        <v>847.0604207552234</v>
       </c>
       <c r="AD4" t="n">
-        <v>632912.2671055153</v>
+        <v>684404.3278640414</v>
       </c>
       <c r="AE4" t="n">
-        <v>865978.4859723472</v>
+        <v>936432.1951715569</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.331046631967736e-06</v>
+        <v>3.372494178886e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.14166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>783330.7146795844</v>
+        <v>847060.4207552234</v>
       </c>
     </row>
     <row r="5">
@@ -9254,28 +9254,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>537.9148378757151</v>
+        <v>589.3215577796695</v>
       </c>
       <c r="AB5" t="n">
-        <v>735.9988123093422</v>
+        <v>806.3357543863542</v>
       </c>
       <c r="AC5" t="n">
-        <v>665.7561186433587</v>
+        <v>729.3802016870588</v>
       </c>
       <c r="AD5" t="n">
-        <v>537914.8378757151</v>
+        <v>589321.5577796695</v>
       </c>
       <c r="AE5" t="n">
-        <v>735998.8123093422</v>
+        <v>806335.7543863542</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.508683796452787e-06</v>
+        <v>3.629494744624978e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.2125</v>
       </c>
       <c r="AH5" t="n">
-        <v>665756.1186433587</v>
+        <v>729380.2016870589</v>
       </c>
     </row>
     <row r="6">
@@ -9360,28 +9360,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>505.1163184366569</v>
+        <v>565.0196031858179</v>
       </c>
       <c r="AB6" t="n">
-        <v>691.1224310442672</v>
+        <v>773.0847479844767</v>
       </c>
       <c r="AC6" t="n">
-        <v>625.1626762218258</v>
+        <v>699.302624668096</v>
       </c>
       <c r="AD6" t="n">
-        <v>505116.3184366569</v>
+        <v>565019.6031858179</v>
       </c>
       <c r="AE6" t="n">
-        <v>691122.4310442671</v>
+        <v>773084.7479844767</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.56176907491231e-06</v>
+        <v>3.706297066008895e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11.95833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>625162.6762218258</v>
+        <v>699302.624668096</v>
       </c>
     </row>
     <row r="7">
@@ -9466,28 +9466,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>506.6646430705149</v>
+        <v>566.5679278196759</v>
       </c>
       <c r="AB7" t="n">
-        <v>693.2409171155737</v>
+        <v>775.2032340557832</v>
       </c>
       <c r="AC7" t="n">
-        <v>627.0789769558005</v>
+        <v>701.2189254020709</v>
       </c>
       <c r="AD7" t="n">
-        <v>506664.6430705149</v>
+        <v>566567.9278196759</v>
       </c>
       <c r="AE7" t="n">
-        <v>693240.9171155737</v>
+        <v>775203.2340557833</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.562063176178014e-06</v>
+        <v>3.706722563634291e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>11.95833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>627078.9769558006</v>
+        <v>701218.9254020709</v>
       </c>
     </row>
     <row r="8">
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>507.2289432245013</v>
+        <v>567.1322279736625</v>
       </c>
       <c r="AB8" t="n">
-        <v>694.0130174814237</v>
+        <v>775.9753344216333</v>
       </c>
       <c r="AC8" t="n">
-        <v>627.7773891463836</v>
+        <v>701.9173375926538</v>
       </c>
       <c r="AD8" t="n">
-        <v>507228.9432245013</v>
+        <v>567132.2279736624</v>
       </c>
       <c r="AE8" t="n">
-        <v>694013.0174814237</v>
+        <v>775975.3344216333</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.566327644530718e-06</v>
+        <v>3.712892279202528e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>12</v>
+        <v>11.9375</v>
       </c>
       <c r="AH8" t="n">
-        <v>627777.3891463836</v>
+        <v>701917.3375926538</v>
       </c>
     </row>
   </sheetData>
@@ -9869,28 +9869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>860.5699834555492</v>
+        <v>933.4322665543393</v>
       </c>
       <c r="AB2" t="n">
-        <v>1177.46981703207</v>
+        <v>1277.163207224901</v>
       </c>
       <c r="AC2" t="n">
-        <v>1065.093750283796</v>
+        <v>1155.272543237175</v>
       </c>
       <c r="AD2" t="n">
-        <v>860569.9834555491</v>
+        <v>933432.2665543393</v>
       </c>
       <c r="AE2" t="n">
-        <v>1177469.81703207</v>
+        <v>1277163.207224901</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.876900059301856e-06</v>
+        <v>2.818511941134623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.65833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1065093.750283796</v>
+        <v>1155272.543237175</v>
       </c>
     </row>
     <row r="3">
@@ -9975,28 +9975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>459.6044871784025</v>
+        <v>516.1898109562234</v>
       </c>
       <c r="AB3" t="n">
-        <v>628.8511356764348</v>
+        <v>706.2736720375494</v>
       </c>
       <c r="AC3" t="n">
-        <v>568.8344658855872</v>
+        <v>638.8679040396095</v>
       </c>
       <c r="AD3" t="n">
-        <v>459604.4871784025</v>
+        <v>516189.8109562234</v>
       </c>
       <c r="AE3" t="n">
-        <v>628851.1356764347</v>
+        <v>706273.6720375494</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.607742479409733e-06</v>
+        <v>3.916006758694588e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.71041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>568834.4658855872</v>
+        <v>638867.9040396095</v>
       </c>
     </row>
     <row r="4">
@@ -10081,28 +10081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>450.2553787448925</v>
+        <v>506.8407025227133</v>
       </c>
       <c r="AB4" t="n">
-        <v>616.0592730641517</v>
+        <v>693.4818094252665</v>
       </c>
       <c r="AC4" t="n">
-        <v>557.2634406875287</v>
+        <v>627.2968788415508</v>
       </c>
       <c r="AD4" t="n">
-        <v>450255.3787448925</v>
+        <v>506840.7025227133</v>
       </c>
       <c r="AE4" t="n">
-        <v>616059.2730641518</v>
+        <v>693481.8094252666</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.639400651286413e-06</v>
+        <v>3.963547348310268e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.55625</v>
       </c>
       <c r="AH4" t="n">
-        <v>557263.4406875287</v>
+        <v>627296.8788415508</v>
       </c>
     </row>
     <row r="5">
@@ -10187,28 +10187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>452.1957624119468</v>
+        <v>508.7810861897677</v>
       </c>
       <c r="AB5" t="n">
-        <v>618.7141916011013</v>
+        <v>696.136727962216</v>
       </c>
       <c r="AC5" t="n">
-        <v>559.6649775255131</v>
+        <v>629.6984156795354</v>
       </c>
       <c r="AD5" t="n">
-        <v>452195.7624119468</v>
+        <v>508781.0861897677</v>
       </c>
       <c r="AE5" t="n">
-        <v>618714.1916011013</v>
+        <v>696136.727962216</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.63955973757725e-06</v>
+        <v>3.963786245745522e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.55625</v>
       </c>
       <c r="AH5" t="n">
-        <v>559664.9775255132</v>
+        <v>629698.4156795354</v>
       </c>
     </row>
     <row r="6">
@@ -10293,28 +10293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>453.5240171727298</v>
+        <v>502.1842134264951</v>
       </c>
       <c r="AB6" t="n">
-        <v>620.531568363269</v>
+        <v>687.1105956140201</v>
       </c>
       <c r="AC6" t="n">
-        <v>561.3089064002039</v>
+        <v>621.533724734395</v>
       </c>
       <c r="AD6" t="n">
-        <v>453524.0171727298</v>
+        <v>502184.2134264951</v>
       </c>
       <c r="AE6" t="n">
-        <v>620531.568363269</v>
+        <v>687110.5956140201</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.643218722266515e-06</v>
+        <v>3.96928088675638e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.53958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>561308.9064002039</v>
+        <v>621533.724734395</v>
       </c>
     </row>
   </sheetData>
@@ -10590,28 +10590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>574.5937523316206</v>
+        <v>629.6011857847348</v>
       </c>
       <c r="AB2" t="n">
-        <v>786.1845212274142</v>
+        <v>861.4481184346569</v>
       </c>
       <c r="AC2" t="n">
-        <v>711.1521739383746</v>
+        <v>779.2327190612802</v>
       </c>
       <c r="AD2" t="n">
-        <v>574593.7523316207</v>
+        <v>629601.1857847348</v>
       </c>
       <c r="AE2" t="n">
-        <v>786184.5212274141</v>
+        <v>861448.1184346569</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.289189496067484e-06</v>
+        <v>3.511036947167702e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.08125</v>
       </c>
       <c r="AH2" t="n">
-        <v>711152.1739383746</v>
+        <v>779232.7190612803</v>
       </c>
     </row>
     <row r="3">
@@ -10696,28 +10696,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.8305488135171</v>
+        <v>484.9797902745508</v>
       </c>
       <c r="AB3" t="n">
-        <v>599.0590726072337</v>
+        <v>663.5707448519485</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.8857155022874</v>
+        <v>600.2404842906676</v>
       </c>
       <c r="AD3" t="n">
-        <v>437830.5488135171</v>
+        <v>484979.7902745508</v>
       </c>
       <c r="AE3" t="n">
-        <v>599059.0726072337</v>
+        <v>663570.7448519485</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.629899906080134e-06</v>
+        <v>4.033600430834764e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.12708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>541885.7155022875</v>
+        <v>600240.4842906676</v>
       </c>
     </row>
     <row r="4">
@@ -10802,28 +10802,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>439.2073034000002</v>
+        <v>486.3565448610339</v>
       </c>
       <c r="AB4" t="n">
-        <v>600.9428089705854</v>
+        <v>665.4544812153003</v>
       </c>
       <c r="AC4" t="n">
-        <v>543.5896707109615</v>
+        <v>601.9444394993417</v>
       </c>
       <c r="AD4" t="n">
-        <v>439207.3034000002</v>
+        <v>486356.5448610339</v>
       </c>
       <c r="AE4" t="n">
-        <v>600942.8089705853</v>
+        <v>665454.4812153004</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.633545640039413e-06</v>
+        <v>4.039192063442096e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.10833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>543589.6707109616</v>
+        <v>601944.4394993416</v>
       </c>
     </row>
     <row r="5">
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>440.8556408905166</v>
+        <v>488.0048823515503</v>
       </c>
       <c r="AB5" t="n">
-        <v>603.1981370446279</v>
+        <v>667.7098092893427</v>
       </c>
       <c r="AC5" t="n">
-        <v>545.6297534389902</v>
+        <v>603.9845222273702</v>
       </c>
       <c r="AD5" t="n">
-        <v>440855.6408905166</v>
+        <v>488004.8823515503</v>
       </c>
       <c r="AE5" t="n">
-        <v>603198.1370446278</v>
+        <v>667709.8092893427</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.636859943638758e-06</v>
+        <v>4.044275365812398e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>14</v>
+        <v>13.09375</v>
       </c>
       <c r="AH5" t="n">
-        <v>545629.7534389902</v>
+        <v>603984.5222273702</v>
       </c>
     </row>
   </sheetData>
@@ -19498,28 +19498,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>431.3606341444384</v>
+        <v>492.5360331560264</v>
       </c>
       <c r="AB2" t="n">
-        <v>590.2066499245099</v>
+        <v>673.9095297202923</v>
       </c>
       <c r="AC2" t="n">
-        <v>533.8781556159495</v>
+        <v>609.5925500417522</v>
       </c>
       <c r="AD2" t="n">
-        <v>431360.6341444384</v>
+        <v>492536.0331560264</v>
       </c>
       <c r="AE2" t="n">
-        <v>590206.6499245098</v>
+        <v>673909.5297202923</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.563313897888488e-06</v>
+        <v>4.005127403147105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.93333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>533878.1556159495</v>
+        <v>609592.5500417523</v>
       </c>
     </row>
     <row r="3">
@@ -19604,28 +19604,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>427.5531512295748</v>
+        <v>481.2309718602146</v>
       </c>
       <c r="AB3" t="n">
-        <v>584.9970838261022</v>
+        <v>658.4414461112578</v>
       </c>
       <c r="AC3" t="n">
-        <v>529.165783194302</v>
+        <v>595.6007186227723</v>
       </c>
       <c r="AD3" t="n">
-        <v>427553.1512295748</v>
+        <v>481230.9718602146</v>
       </c>
       <c r="AE3" t="n">
-        <v>584997.0838261022</v>
+        <v>658441.4461112579</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.586284810903739e-06</v>
+        <v>4.041019001623779e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.80833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>529165.783194302</v>
+        <v>595600.7186227724</v>
       </c>
     </row>
     <row r="4">
@@ -19710,28 +19710,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>430.5022765191257</v>
+        <v>484.1800971497655</v>
       </c>
       <c r="AB4" t="n">
-        <v>589.032207153491</v>
+        <v>662.4765694386465</v>
       </c>
       <c r="AC4" t="n">
-        <v>532.815800014656</v>
+        <v>599.2507354431262</v>
       </c>
       <c r="AD4" t="n">
-        <v>430502.2765191257</v>
+        <v>484180.0971497655</v>
       </c>
       <c r="AE4" t="n">
-        <v>589032.207153491</v>
+        <v>662476.5694386465</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.586284810903739e-06</v>
+        <v>4.041019001623779e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.80833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>532815.800014656</v>
+        <v>599250.7354431263</v>
       </c>
     </row>
   </sheetData>
@@ -20007,28 +20007,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.1531165249735</v>
+        <v>520.6935811028842</v>
       </c>
       <c r="AB2" t="n">
-        <v>622.7605739677998</v>
+        <v>712.4359290445266</v>
       </c>
       <c r="AC2" t="n">
-        <v>563.3251788382673</v>
+        <v>644.4420438866226</v>
       </c>
       <c r="AD2" t="n">
-        <v>455153.1165249735</v>
+        <v>520693.5811028841</v>
       </c>
       <c r="AE2" t="n">
-        <v>622760.5739677998</v>
+        <v>712435.9290445265</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.292160155189676e-06</v>
+        <v>3.735478698145379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.72291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>563325.1788382673</v>
+        <v>644442.0438866226</v>
       </c>
     </row>
     <row r="3">
@@ -20113,28 +20113,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>460.2692040780491</v>
+        <v>525.8096686559599</v>
       </c>
       <c r="AB3" t="n">
-        <v>629.7606306637714</v>
+        <v>719.4359857404982</v>
       </c>
       <c r="AC3" t="n">
-        <v>569.6571599478166</v>
+        <v>650.7740249961721</v>
       </c>
       <c r="AD3" t="n">
-        <v>460269.2040780492</v>
+        <v>525809.6686559599</v>
       </c>
       <c r="AE3" t="n">
-        <v>629760.6306637714</v>
+        <v>719435.9857404982</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.292160155189676e-06</v>
+        <v>3.735478698145379e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.72291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>569657.1599478166</v>
+        <v>650774.0249961721</v>
       </c>
     </row>
   </sheetData>
@@ -20410,28 +20410,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1242.153083834966</v>
+        <v>1333.336895011828</v>
       </c>
       <c r="AB2" t="n">
-        <v>1699.568649229475</v>
+        <v>1824.330362427495</v>
       </c>
       <c r="AC2" t="n">
-        <v>1537.364202706594</v>
+        <v>1650.218833101159</v>
       </c>
       <c r="AD2" t="n">
-        <v>1242153.083834966</v>
+        <v>1333336.895011828</v>
       </c>
       <c r="AE2" t="n">
-        <v>1699568.649229475</v>
+        <v>1824330.362427495</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.549622099979027e-06</v>
+        <v>2.289381945154064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.68541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1537364.202706594</v>
+        <v>1650218.833101159</v>
       </c>
     </row>
     <row r="3">
@@ -20516,28 +20516,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>588.9979823378977</v>
+        <v>647.078351812446</v>
       </c>
       <c r="AB3" t="n">
-        <v>805.8930241917811</v>
+        <v>885.3611480319195</v>
       </c>
       <c r="AC3" t="n">
-        <v>728.97972504088</v>
+        <v>800.863522675928</v>
       </c>
       <c r="AD3" t="n">
-        <v>588997.9823378978</v>
+        <v>647078.351812446</v>
       </c>
       <c r="AE3" t="n">
-        <v>805893.0241917812</v>
+        <v>885361.1480319195</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.356976598895714e-06</v>
+        <v>3.482151984497065e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>728979.72504088</v>
+        <v>800863.5226759281</v>
       </c>
     </row>
     <row r="4">
@@ -20622,28 +20622,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.2007674995363</v>
+        <v>522.8986899888428</v>
       </c>
       <c r="AB4" t="n">
-        <v>647.4541662373642</v>
+        <v>715.4530563048335</v>
       </c>
       <c r="AC4" t="n">
-        <v>585.6620493192988</v>
+        <v>647.1712207557706</v>
       </c>
       <c r="AD4" t="n">
-        <v>473200.7674995363</v>
+        <v>522898.6899888428</v>
       </c>
       <c r="AE4" t="n">
-        <v>647454.1662373643</v>
+        <v>715453.0563048335</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.613477446941095e-06</v>
+        <v>3.861101413806153e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.26458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>585662.0493192988</v>
+        <v>647171.2207557706</v>
       </c>
     </row>
     <row r="5">
@@ -20728,28 +20728,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>473.6536857772613</v>
+        <v>523.3516082665678</v>
       </c>
       <c r="AB5" t="n">
-        <v>648.0738690062917</v>
+        <v>716.0727590737611</v>
       </c>
       <c r="AC5" t="n">
-        <v>586.2226085257182</v>
+        <v>647.73177996219</v>
       </c>
       <c r="AD5" t="n">
-        <v>473653.6857772613</v>
+        <v>523351.6082665678</v>
       </c>
       <c r="AE5" t="n">
-        <v>648073.8690062917</v>
+        <v>716072.7590737611</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.617170320578222e-06</v>
+        <v>3.866557194432079e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.24791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>586222.6085257182</v>
+        <v>647731.77996219</v>
       </c>
     </row>
     <row r="6">
@@ -20834,28 +20834,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>474.3897550980883</v>
+        <v>524.087677587395</v>
       </c>
       <c r="AB6" t="n">
-        <v>649.0809915241339</v>
+        <v>717.0798815916031</v>
       </c>
       <c r="AC6" t="n">
-        <v>587.1336126839631</v>
+        <v>648.6427841204346</v>
       </c>
       <c r="AD6" t="n">
-        <v>474389.7550980883</v>
+        <v>524087.677587395</v>
       </c>
       <c r="AE6" t="n">
-        <v>649080.9915241338</v>
+        <v>717079.8815916032</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.621170933685108e-06</v>
+        <v>3.872467623443499e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.22916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>587133.612683963</v>
+        <v>648642.7841204347</v>
       </c>
     </row>
   </sheetData>
@@ -21131,28 +21131,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2018.291882511089</v>
+        <v>2137.526960571839</v>
       </c>
       <c r="AB2" t="n">
-        <v>2761.515994405348</v>
+        <v>2924.658688488457</v>
       </c>
       <c r="AC2" t="n">
-        <v>2497.960783711341</v>
+        <v>2645.533368043368</v>
       </c>
       <c r="AD2" t="n">
-        <v>2018291.882511089</v>
+        <v>2137526.960571839</v>
       </c>
       <c r="AE2" t="n">
-        <v>2761515.994405347</v>
+        <v>2924658.688488457</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.189303932624777e-06</v>
+        <v>1.727070321123201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.975</v>
       </c>
       <c r="AH2" t="n">
-        <v>2497960.783711341</v>
+        <v>2645533.368043368</v>
       </c>
     </row>
     <row r="3">
@@ -21237,28 +21237,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>775.9377875832711</v>
+        <v>844.0843094543525</v>
       </c>
       <c r="AB3" t="n">
-        <v>1061.67231293065</v>
+        <v>1154.913390567026</v>
       </c>
       <c r="AC3" t="n">
-        <v>960.3477974509976</v>
+        <v>1044.690077502433</v>
       </c>
       <c r="AD3" t="n">
-        <v>775937.787583271</v>
+        <v>844084.3094543525</v>
       </c>
       <c r="AE3" t="n">
-        <v>1061672.31293065</v>
+        <v>1154913.390567026</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065750204379553e-06</v>
+        <v>2.999818440828879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.95416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>960347.7974509976</v>
+        <v>1044690.077502433</v>
       </c>
     </row>
     <row r="4">
@@ -21343,28 +21343,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>590.6127760343518</v>
+        <v>650.2303150647266</v>
       </c>
       <c r="AB4" t="n">
-        <v>808.1024561669395</v>
+        <v>889.6738032084944</v>
       </c>
       <c r="AC4" t="n">
-        <v>730.9782919292866</v>
+        <v>804.7645840953002</v>
       </c>
       <c r="AD4" t="n">
-        <v>590612.7760343518</v>
+        <v>650230.3150647266</v>
       </c>
       <c r="AE4" t="n">
-        <v>808102.4561669396</v>
+        <v>889673.8032084944</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.389728398218867e-06</v>
+        <v>3.470289535661716e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.925</v>
       </c>
       <c r="AH4" t="n">
-        <v>730978.2919292866</v>
+        <v>804764.5840953002</v>
       </c>
     </row>
     <row r="5">
@@ -21449,28 +21449,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>511.2996937794138</v>
+        <v>562.3883394776332</v>
       </c>
       <c r="AB5" t="n">
-        <v>699.5827979794949</v>
+        <v>769.4845368957762</v>
       </c>
       <c r="AC5" t="n">
-        <v>632.8155976109548</v>
+        <v>696.0460126727731</v>
       </c>
       <c r="AD5" t="n">
-        <v>511299.6937794138</v>
+        <v>562388.3394776331</v>
       </c>
       <c r="AE5" t="n">
-        <v>699582.7979794949</v>
+        <v>769484.5368957762</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.555646750121015e-06</v>
+        <v>3.711231025418214e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.0875</v>
       </c>
       <c r="AH5" t="n">
-        <v>632815.5976109548</v>
+        <v>696046.0126727731</v>
       </c>
     </row>
     <row r="6">
@@ -21555,28 +21555,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>507.6516783088038</v>
+        <v>558.7403240070231</v>
       </c>
       <c r="AB6" t="n">
-        <v>694.5914222735221</v>
+        <v>764.4931611898036</v>
       </c>
       <c r="AC6" t="n">
-        <v>628.3005917969205</v>
+        <v>691.5310068587387</v>
       </c>
       <c r="AD6" t="n">
-        <v>507651.6783088038</v>
+        <v>558740.3240070231</v>
       </c>
       <c r="AE6" t="n">
-        <v>694591.4222735221</v>
+        <v>764493.1611898036</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.567656925727873e-06</v>
+        <v>3.728671830306753e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.03125</v>
       </c>
       <c r="AH6" t="n">
-        <v>628300.5917969204</v>
+        <v>691531.0068587387</v>
       </c>
     </row>
     <row r="7">
@@ -21661,28 +21661,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>508.2898259791064</v>
+        <v>559.3784716773257</v>
       </c>
       <c r="AB7" t="n">
-        <v>695.4645640691183</v>
+        <v>765.3663029853998</v>
       </c>
       <c r="AC7" t="n">
-        <v>629.090402165007</v>
+        <v>692.3208172268254</v>
       </c>
       <c r="AD7" t="n">
-        <v>508289.8259791064</v>
+        <v>559378.4716773257</v>
       </c>
       <c r="AE7" t="n">
-        <v>695464.5640691184</v>
+        <v>765366.3029853997</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.571956865142674e-06</v>
+        <v>3.734916069094009e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>13</v>
+        <v>12.01041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>629090.4021650071</v>
+        <v>692320.8172268254</v>
       </c>
     </row>
   </sheetData>
@@ -21958,28 +21958,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>503.2600579270718</v>
+        <v>581.3616798908007</v>
       </c>
       <c r="AB2" t="n">
-        <v>688.582613522619</v>
+        <v>795.4446982937756</v>
       </c>
       <c r="AC2" t="n">
-        <v>622.8652553197874</v>
+        <v>719.5285727022627</v>
       </c>
       <c r="AD2" t="n">
-        <v>503260.0579270718</v>
+        <v>581361.6798908007</v>
       </c>
       <c r="AE2" t="n">
-        <v>688582.613522619</v>
+        <v>795444.6982937756</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.995348552775268e-06</v>
+        <v>3.326127156521544e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.89375</v>
       </c>
       <c r="AH2" t="n">
-        <v>622865.2553197874</v>
+        <v>719528.5727022628</v>
       </c>
     </row>
   </sheetData>
@@ -22255,28 +22255,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>658.300882594756</v>
+        <v>729.6130696679556</v>
       </c>
       <c r="AB2" t="n">
-        <v>900.7163097513915</v>
+        <v>998.2887901765981</v>
       </c>
       <c r="AC2" t="n">
-        <v>814.7532093119984</v>
+        <v>903.0135091492597</v>
       </c>
       <c r="AD2" t="n">
-        <v>658300.882594756</v>
+        <v>729613.0696679556</v>
       </c>
       <c r="AE2" t="n">
-        <v>900716.3097513914</v>
+        <v>998288.7901765981</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.138083556843246e-06</v>
+        <v>3.253963522954325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.91041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>814753.2093119983</v>
+        <v>903013.5091492597</v>
       </c>
     </row>
     <row r="3">
@@ -22361,28 +22361,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>435.9848380824056</v>
+        <v>491.497284058545</v>
       </c>
       <c r="AB3" t="n">
-        <v>596.5336897579159</v>
+        <v>672.4882673787422</v>
       </c>
       <c r="AC3" t="n">
-        <v>539.6013516477117</v>
+        <v>608.3069309833255</v>
       </c>
       <c r="AD3" t="n">
-        <v>435984.8380824056</v>
+        <v>491497.284058545</v>
       </c>
       <c r="AE3" t="n">
-        <v>596533.6897579159</v>
+        <v>672488.2673787422</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.636474377547866e-06</v>
+        <v>4.01246781319007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.90416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>539601.3516477117</v>
+        <v>608306.9309833255</v>
       </c>
     </row>
     <row r="4">
@@ -22467,28 +22467,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>437.2446650222497</v>
+        <v>492.7571109983892</v>
       </c>
       <c r="AB4" t="n">
-        <v>598.2574405566526</v>
+        <v>674.2120181774789</v>
       </c>
       <c r="AC4" t="n">
-        <v>541.1605900895165</v>
+        <v>609.8661694251301</v>
       </c>
       <c r="AD4" t="n">
-        <v>437244.6650222497</v>
+        <v>492757.1109983892</v>
       </c>
       <c r="AE4" t="n">
-        <v>598257.4405566526</v>
+        <v>674212.0181774788</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.640230271675063e-06</v>
+        <v>4.018183933332737e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.88541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>541160.5900895165</v>
+        <v>609866.1694251301</v>
       </c>
     </row>
     <row r="5">
@@ -22573,28 +22573,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>438.5966421593025</v>
+        <v>494.1090881354419</v>
       </c>
       <c r="AB5" t="n">
-        <v>600.10727532059</v>
+        <v>676.0618529414163</v>
       </c>
       <c r="AC5" t="n">
-        <v>542.833879219843</v>
+        <v>611.5394585554567</v>
       </c>
       <c r="AD5" t="n">
-        <v>438596.6421593025</v>
+        <v>494109.0881354419</v>
       </c>
       <c r="AE5" t="n">
-        <v>600107.27532059</v>
+        <v>676061.8529414163</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.6438228660576e-06</v>
+        <v>4.023651526512681e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.86875</v>
       </c>
       <c r="AH5" t="n">
-        <v>542833.879219843</v>
+        <v>611539.4585554567</v>
       </c>
     </row>
   </sheetData>
@@ -22870,28 +22870,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>975.5413020168494</v>
+        <v>1057.11817269259</v>
       </c>
       <c r="AB2" t="n">
-        <v>1334.778647264241</v>
+        <v>1446.395720640324</v>
       </c>
       <c r="AC2" t="n">
-        <v>1207.389246542938</v>
+        <v>1308.353743091554</v>
       </c>
       <c r="AD2" t="n">
-        <v>975541.3020168494</v>
+        <v>1057118.17269259</v>
       </c>
       <c r="AE2" t="n">
-        <v>1334778.647264241</v>
+        <v>1446395.720640324</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.760422031385516e-06</v>
+        <v>2.62815287664623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.60625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1207389.246542938</v>
+        <v>1308353.743091554</v>
       </c>
     </row>
     <row r="3">
@@ -22976,28 +22976,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>495.9884079150399</v>
+        <v>553.0666151316867</v>
       </c>
       <c r="AB3" t="n">
-        <v>678.6332211735994</v>
+        <v>756.7301424001984</v>
       </c>
       <c r="AC3" t="n">
-        <v>613.8654190124984</v>
+        <v>684.508879686948</v>
       </c>
       <c r="AD3" t="n">
-        <v>495988.4079150399</v>
+        <v>553066.6151316867</v>
       </c>
       <c r="AE3" t="n">
-        <v>678633.2211735994</v>
+        <v>756730.1424001984</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.528454685071168e-06</v>
+        <v>3.774757038691137e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.95416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>613865.4190124983</v>
+        <v>684508.879686948</v>
       </c>
     </row>
     <row r="4">
@@ -23082,28 +23082,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>457.7656104337219</v>
+        <v>506.6776860058885</v>
       </c>
       <c r="AB4" t="n">
-        <v>626.3351033888464</v>
+        <v>693.2587630351655</v>
       </c>
       <c r="AC4" t="n">
-        <v>566.5585601882527</v>
+        <v>627.0951196858736</v>
       </c>
       <c r="AD4" t="n">
-        <v>457765.6104337219</v>
+        <v>506677.6860058884</v>
       </c>
       <c r="AE4" t="n">
-        <v>626335.1033888464</v>
+        <v>693258.7630351655</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.632850525817795e-06</v>
+        <v>3.930610705753127e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.44166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>566558.5601882527</v>
+        <v>627095.1196858735</v>
       </c>
     </row>
     <row r="5">
@@ -23188,28 +23188,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>459.7256715796874</v>
+        <v>508.6377471518539</v>
       </c>
       <c r="AB5" t="n">
-        <v>629.0169455205512</v>
+        <v>695.9406051668705</v>
       </c>
       <c r="AC5" t="n">
-        <v>568.9844510708969</v>
+        <v>629.5210105685175</v>
       </c>
       <c r="AD5" t="n">
-        <v>459725.6715796874</v>
+        <v>508637.7471518539</v>
       </c>
       <c r="AE5" t="n">
-        <v>629016.9455205512</v>
+        <v>695940.6051668704</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.633007748469522e-06</v>
+        <v>3.930845425131232e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>13</v>
+        <v>12.43958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>568984.4510708968</v>
+        <v>629521.0105685175</v>
       </c>
     </row>
     <row r="6">
@@ -23294,28 +23294,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>460.8441916513186</v>
+        <v>509.7562672234851</v>
       </c>
       <c r="AB6" t="n">
-        <v>630.5473540281799</v>
+        <v>697.471013674499</v>
       </c>
       <c r="AC6" t="n">
-        <v>570.3687995384992</v>
+        <v>630.90535903612</v>
       </c>
       <c r="AD6" t="n">
-        <v>460844.1916513186</v>
+        <v>509756.2672234851</v>
       </c>
       <c r="AE6" t="n">
-        <v>630547.3540281799</v>
+        <v>697471.013674499</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.636781092110966e-06</v>
+        <v>3.936478690205762e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>13</v>
+        <v>12.42291666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>570368.7995384992</v>
+        <v>630905.35903612</v>
       </c>
     </row>
   </sheetData>
